--- a/team_specific_matrix/Green Bay_A.xlsx
+++ b/team_specific_matrix/Green Bay_A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1542553191489362</v>
+        <v>0.16289592760181</v>
       </c>
       <c r="C2">
-        <v>0.6170212765957447</v>
+        <v>0.5972850678733032</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.02127659574468085</v>
+        <v>0.03167420814479638</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1329787234042553</v>
+        <v>0.1266968325791855</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.07446808510638298</v>
+        <v>0.08144796380090498</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -560,7 +560,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.04032258064516129</v>
+        <v>0.03597122302158273</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.04838709677419355</v>
+        <v>0.05035971223021583</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.75</v>
+        <v>0.7194244604316546</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1612903225806452</v>
+        <v>0.1942446043165468</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.05128205128205128</v>
+        <v>0.06521739130434782</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.7692307692307693</v>
+        <v>0.6956521739130435</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.1794871794871795</v>
+        <v>0.2391304347826087</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -699,7 +699,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -717,7 +717,7 @@
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.5</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.04455445544554455</v>
+        <v>0.04273504273504274</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.004950495049504951</v>
+        <v>0.008547008547008548</v>
       </c>
       <c r="E6">
-        <v>0.004950495049504951</v>
+        <v>0.004273504273504274</v>
       </c>
       <c r="F6">
-        <v>0.04950495049504951</v>
+        <v>0.04700854700854701</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1782178217821782</v>
+        <v>0.188034188034188</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.01485148514851485</v>
+        <v>0.0170940170940171</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1435643564356436</v>
+        <v>0.1538461538461539</v>
       </c>
       <c r="R6">
-        <v>0.1188118811881188</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="S6">
-        <v>0.4405940594059406</v>
+        <v>0.4273504273504273</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1158536585365854</v>
+        <v>0.09947643979057591</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.02439024390243903</v>
+        <v>0.02094240837696335</v>
       </c>
       <c r="E7">
-        <v>0.006097560975609756</v>
+        <v>0.01047120418848168</v>
       </c>
       <c r="F7">
-        <v>0.06707317073170732</v>
+        <v>0.07853403141361257</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.07926829268292683</v>
+        <v>0.09424083769633508</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.02439024390243903</v>
+        <v>0.02094240837696335</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1707317073170732</v>
+        <v>0.1675392670157068</v>
       </c>
       <c r="R7">
-        <v>0.0975609756097561</v>
+        <v>0.08900523560209424</v>
       </c>
       <c r="S7">
-        <v>0.4146341463414634</v>
+        <v>0.418848167539267</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.09549071618037135</v>
+        <v>0.09151785714285714</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01856763925729443</v>
+        <v>0.02008928571428572</v>
       </c>
       <c r="E8">
-        <v>0.002652519893899204</v>
+        <v>0.002232142857142857</v>
       </c>
       <c r="F8">
-        <v>0.07161803713527852</v>
+        <v>0.06919642857142858</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1007957559681698</v>
+        <v>0.1026785714285714</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.02122015915119363</v>
+        <v>0.02455357142857143</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1697612732095491</v>
+        <v>0.1629464285714286</v>
       </c>
       <c r="R8">
-        <v>0.1326259946949602</v>
+        <v>0.1205357142857143</v>
       </c>
       <c r="S8">
-        <v>0.3872679045092838</v>
+        <v>0.40625</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.07575757575757576</v>
+        <v>0.08176100628930817</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.0303030303030303</v>
+        <v>0.02515723270440252</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.06060606060606061</v>
+        <v>0.06918238993710692</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1212121212121212</v>
+        <v>0.1132075471698113</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.01515151515151515</v>
+        <v>0.01257861635220126</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1893939393939394</v>
+        <v>0.1949685534591195</v>
       </c>
       <c r="R9">
-        <v>0.09848484848484848</v>
+        <v>0.1006289308176101</v>
       </c>
       <c r="S9">
-        <v>0.4090909090909091</v>
+        <v>0.4025157232704403</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.08221993833504625</v>
+        <v>0.08561341571050309</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.0236382322713258</v>
+        <v>0.02383053839364519</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.08941418293936279</v>
+        <v>0.08737864077669903</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1027749229188078</v>
+        <v>0.1032656663724625</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.02261048304213772</v>
+        <v>0.02383053839364519</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.1767728674203494</v>
+        <v>0.1800529567519859</v>
       </c>
       <c r="R10">
-        <v>0.1223021582733813</v>
+        <v>0.116504854368932</v>
       </c>
       <c r="S10">
-        <v>0.3802672147995889</v>
+        <v>0.3795233892321271</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1046511627906977</v>
+        <v>0.1114864864864865</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1085271317829457</v>
+        <v>0.09797297297297297</v>
       </c>
       <c r="K11">
-        <v>0.186046511627907</v>
+        <v>0.1824324324324324</v>
       </c>
       <c r="L11">
-        <v>0.5775193798449613</v>
+        <v>0.5878378378378378</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.02325581395348837</v>
+        <v>0.02027027027027027</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7450980392156863</v>
+        <v>0.75</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2091503267973856</v>
+        <v>0.1988636363636364</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>0.005681818181818182</v>
       </c>
       <c r="L12">
-        <v>0.0130718954248366</v>
+        <v>0.01136363636363636</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.03267973856209151</v>
+        <v>0.03409090909090909</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.7631578947368421</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.1842105263157895</v>
+        <v>0.2272727272727273</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.05263157894736842</v>
+        <v>0.04545454545454546</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.009803921568627451</v>
+        <v>0.0125</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1372549019607843</v>
+        <v>0.1541666666666667</v>
       </c>
       <c r="I15">
-        <v>0.06372549019607843</v>
+        <v>0.0625</v>
       </c>
       <c r="J15">
-        <v>0.357843137254902</v>
+        <v>0.3375</v>
       </c>
       <c r="K15">
-        <v>0.05882352941176471</v>
+        <v>0.05833333333333333</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.02450980392156863</v>
+        <v>0.02083333333333333</v>
       </c>
       <c r="N15">
-        <v>0.004901960784313725</v>
+        <v>0.004166666666666667</v>
       </c>
       <c r="O15">
-        <v>0.08333333333333333</v>
+        <v>0.09166666666666666</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2598039215686275</v>
+        <v>0.2583333333333334</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.02054794520547945</v>
+        <v>0.02515723270440252</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1506849315068493</v>
+        <v>0.1509433962264151</v>
       </c>
       <c r="I16">
-        <v>0.0821917808219178</v>
+        <v>0.08176100628930817</v>
       </c>
       <c r="J16">
-        <v>0.3835616438356164</v>
+        <v>0.3836477987421384</v>
       </c>
       <c r="K16">
-        <v>0.1095890410958904</v>
+        <v>0.1006289308176101</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.02054794520547945</v>
+        <v>0.02515723270440252</v>
       </c>
       <c r="N16">
-        <v>0.0136986301369863</v>
+        <v>0.01257861635220126</v>
       </c>
       <c r="O16">
-        <v>0.04794520547945205</v>
+        <v>0.0440251572327044</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1712328767123288</v>
+        <v>0.1761006289308176</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.03174603174603174</v>
+        <v>0.02680965147453083</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1936507936507937</v>
+        <v>0.2010723860589812</v>
       </c>
       <c r="I17">
-        <v>0.07301587301587302</v>
+        <v>0.07774798927613941</v>
       </c>
       <c r="J17">
-        <v>0.3873015873015873</v>
+        <v>0.3994638069705094</v>
       </c>
       <c r="K17">
-        <v>0.1047619047619048</v>
+        <v>0.09919571045576407</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.009523809523809525</v>
+        <v>0.008042895442359249</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.05396825396825397</v>
+        <v>0.04557640750670242</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.146031746031746</v>
+        <v>0.1420911528150134</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.0179372197309417</v>
+        <v>0.02439024390243903</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1883408071748879</v>
+        <v>0.1829268292682927</v>
       </c>
       <c r="I18">
-        <v>0.08968609865470852</v>
+        <v>0.0975609756097561</v>
       </c>
       <c r="J18">
-        <v>0.4125560538116592</v>
+        <v>0.4024390243902439</v>
       </c>
       <c r="K18">
-        <v>0.08520179372197309</v>
+        <v>0.08536585365853659</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.02690582959641256</v>
+        <v>0.02845528455284553</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.05829596412556054</v>
+        <v>0.05691056910569105</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1210762331838565</v>
+        <v>0.1219512195121951</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01557935735150925</v>
+        <v>0.01482701812191104</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2220058422590068</v>
+        <v>0.2232289950576606</v>
       </c>
       <c r="I19">
-        <v>0.06426484907497566</v>
+        <v>0.06589785831960461</v>
       </c>
       <c r="J19">
-        <v>0.3524829600778968</v>
+        <v>0.3500823723228995</v>
       </c>
       <c r="K19">
-        <v>0.124634858812074</v>
+        <v>0.1243822075782537</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02142161635832522</v>
+        <v>0.0214168039538715</v>
       </c>
       <c r="N19">
-        <v>0.0009737098344693282</v>
+        <v>0.0008237232289950577</v>
       </c>
       <c r="O19">
-        <v>0.08568646543330087</v>
+        <v>0.08484349258649095</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1129503407984421</v>
+        <v>0.114497528830313</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Green Bay_A.xlsx
+++ b/team_specific_matrix/Green Bay_A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.16289592760181</v>
+        <v>0.1653225806451613</v>
       </c>
       <c r="C2">
-        <v>0.5972850678733032</v>
+        <v>0.5887096774193549</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.03167420814479638</v>
+        <v>0.0282258064516129</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1266968325791855</v>
+        <v>0.125</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.08144796380090498</v>
+        <v>0.09274193548387097</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -560,7 +560,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.03597122302158273</v>
+        <v>0.03267973856209151</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.05035971223021583</v>
+        <v>0.05228758169934641</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7194244604316546</v>
+        <v>0.7320261437908496</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1942446043165468</v>
+        <v>0.1830065359477124</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.06521739130434782</v>
+        <v>0.0625</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.6956521739130435</v>
+        <v>0.7083333333333334</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.2391304347826087</v>
+        <v>0.2291666666666667</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.04273504273504274</v>
+        <v>0.04743083003952569</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.008547008547008548</v>
+        <v>0.007905138339920948</v>
       </c>
       <c r="E6">
-        <v>0.004273504273504274</v>
+        <v>0.003952569169960474</v>
       </c>
       <c r="F6">
-        <v>0.04700854700854701</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.188034188034188</v>
+        <v>0.1936758893280632</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.0170940170940171</v>
+        <v>0.0158102766798419</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1538461538461539</v>
+        <v>0.150197628458498</v>
       </c>
       <c r="R6">
-        <v>0.1111111111111111</v>
+        <v>0.1067193675889328</v>
       </c>
       <c r="S6">
-        <v>0.4273504273504273</v>
+        <v>0.4308300395256917</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.09947643979057591</v>
+        <v>0.1067961165048544</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.02094240837696335</v>
+        <v>0.01941747572815534</v>
       </c>
       <c r="E7">
-        <v>0.01047120418848168</v>
+        <v>0.009708737864077669</v>
       </c>
       <c r="F7">
-        <v>0.07853403141361257</v>
+        <v>0.07281553398058252</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.09424083769633508</v>
+        <v>0.0970873786407767</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.02094240837696335</v>
+        <v>0.01941747572815534</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1675392670157068</v>
+        <v>0.1650485436893204</v>
       </c>
       <c r="R7">
-        <v>0.08900523560209424</v>
+        <v>0.09223300970873786</v>
       </c>
       <c r="S7">
-        <v>0.418848167539267</v>
+        <v>0.4174757281553398</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.09151785714285714</v>
+        <v>0.09147609147609148</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.02008928571428572</v>
+        <v>0.01871101871101871</v>
       </c>
       <c r="E8">
-        <v>0.002232142857142857</v>
+        <v>0.002079002079002079</v>
       </c>
       <c r="F8">
-        <v>0.06919642857142858</v>
+        <v>0.07276507276507277</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1026785714285714</v>
+        <v>0.103950103950104</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.02455357142857143</v>
+        <v>0.02494802494802495</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1629464285714286</v>
+        <v>0.1683991683991684</v>
       </c>
       <c r="R8">
-        <v>0.1205357142857143</v>
+        <v>0.1205821205821206</v>
       </c>
       <c r="S8">
-        <v>0.40625</v>
+        <v>0.3970893970893971</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.08176100628930817</v>
+        <v>0.08383233532934131</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.02515723270440252</v>
+        <v>0.02395209580838323</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.06918238993710692</v>
+        <v>0.0718562874251497</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1132075471698113</v>
+        <v>0.1077844311377246</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.01257861635220126</v>
+        <v>0.01197604790419162</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1949685534591195</v>
+        <v>0.1856287425149701</v>
       </c>
       <c r="R9">
-        <v>0.1006289308176101</v>
+        <v>0.1017964071856287</v>
       </c>
       <c r="S9">
-        <v>0.4025157232704403</v>
+        <v>0.4131736526946108</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.08561341571050309</v>
+        <v>0.09083402146985962</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02383053839364519</v>
+        <v>0.02394715111478117</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.08737864077669903</v>
+        <v>0.09083402146985962</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1032656663724625</v>
+        <v>0.1007431874483898</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.02383053839364519</v>
+        <v>0.02394715111478117</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.1800529567519859</v>
+        <v>0.1816680429397192</v>
       </c>
       <c r="R10">
-        <v>0.116504854368932</v>
+        <v>0.1114781172584641</v>
       </c>
       <c r="S10">
-        <v>0.3795233892321271</v>
+        <v>0.3765483071841453</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1114864864864865</v>
+        <v>0.1146496815286624</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.09797297297297297</v>
+        <v>0.09554140127388536</v>
       </c>
       <c r="K11">
-        <v>0.1824324324324324</v>
+        <v>0.1815286624203822</v>
       </c>
       <c r="L11">
-        <v>0.5878378378378378</v>
+        <v>0.589171974522293</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.02027027027027027</v>
+        <v>0.01910828025477707</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.75</v>
+        <v>0.7540106951871658</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1988636363636364</v>
+        <v>0.1978609625668449</v>
       </c>
       <c r="K12">
-        <v>0.005681818181818182</v>
+        <v>0.0053475935828877</v>
       </c>
       <c r="L12">
-        <v>0.01136363636363636</v>
+        <v>0.0106951871657754</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.03409090909090909</v>
+        <v>0.03208556149732621</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.7272727272727273</v>
+        <v>0.6938775510204082</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2272727272727273</v>
+        <v>0.2653061224489796</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.04545454545454546</v>
+        <v>0.04081632653061224</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1218,10 +1218,10 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.5</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.0125</v>
+        <v>0.01171875</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1541666666666667</v>
+        <v>0.15234375</v>
       </c>
       <c r="I15">
         <v>0.0625</v>
       </c>
       <c r="J15">
-        <v>0.3375</v>
+        <v>0.3359375</v>
       </c>
       <c r="K15">
-        <v>0.05833333333333333</v>
+        <v>0.05859375</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.02083333333333333</v>
+        <v>0.01953125</v>
       </c>
       <c r="N15">
-        <v>0.004166666666666667</v>
+        <v>0.0078125</v>
       </c>
       <c r="O15">
-        <v>0.09166666666666666</v>
+        <v>0.08984375</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2583333333333334</v>
+        <v>0.26171875</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.02515723270440252</v>
+        <v>0.02285714285714286</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1509433962264151</v>
+        <v>0.1542857142857143</v>
       </c>
       <c r="I16">
-        <v>0.08176100628930817</v>
+        <v>0.09142857142857143</v>
       </c>
       <c r="J16">
-        <v>0.3836477987421384</v>
+        <v>0.36</v>
       </c>
       <c r="K16">
-        <v>0.1006289308176101</v>
+        <v>0.1142857142857143</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.02515723270440252</v>
+        <v>0.02285714285714286</v>
       </c>
       <c r="N16">
-        <v>0.01257861635220126</v>
+        <v>0.01142857142857143</v>
       </c>
       <c r="O16">
-        <v>0.0440251572327044</v>
+        <v>0.05142857142857143</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1761006289308176</v>
+        <v>0.1714285714285714</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.02680965147453083</v>
+        <v>0.02743142144638404</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.2010723860589812</v>
+        <v>0.2044887780548628</v>
       </c>
       <c r="I17">
-        <v>0.07774798927613941</v>
+        <v>0.07231920199501247</v>
       </c>
       <c r="J17">
-        <v>0.3994638069705094</v>
+        <v>0.4014962593516209</v>
       </c>
       <c r="K17">
-        <v>0.09919571045576407</v>
+        <v>0.09725685785536159</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.008042895442359249</v>
+        <v>0.009975062344139651</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.04557640750670242</v>
+        <v>0.04488778054862843</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1420911528150134</v>
+        <v>0.14214463840399</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.02439024390243903</v>
+        <v>0.02723735408560311</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1829268292682927</v>
+        <v>0.178988326848249</v>
       </c>
       <c r="I18">
-        <v>0.0975609756097561</v>
+        <v>0.09727626459143969</v>
       </c>
       <c r="J18">
-        <v>0.4024390243902439</v>
+        <v>0.4046692607003891</v>
       </c>
       <c r="K18">
-        <v>0.08536585365853659</v>
+        <v>0.08171206225680934</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.02845528455284553</v>
+        <v>0.02723735408560311</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.05691056910569105</v>
+        <v>0.05836575875486381</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1219512195121951</v>
+        <v>0.1245136186770428</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01482701812191104</v>
+        <v>0.01386748844375963</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2232289950576606</v>
+        <v>0.224191063174114</v>
       </c>
       <c r="I19">
-        <v>0.06589785831960461</v>
+        <v>0.06471494607087827</v>
       </c>
       <c r="J19">
-        <v>0.3500823723228995</v>
+        <v>0.3528505392912172</v>
       </c>
       <c r="K19">
-        <v>0.1243822075782537</v>
+        <v>0.1217257318952234</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.0214168039538715</v>
+        <v>0.02311248073959938</v>
       </c>
       <c r="N19">
-        <v>0.0008237232289950577</v>
+        <v>0.0007704160246533128</v>
       </c>
       <c r="O19">
-        <v>0.08484349258649095</v>
+        <v>0.08320493066255778</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.114497528830313</v>
+        <v>0.1155624036979969</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Green Bay_A.xlsx
+++ b/team_specific_matrix/Green Bay_A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1653225806451613</v>
+        <v>0.1673151750972763</v>
       </c>
       <c r="C2">
-        <v>0.5887096774193549</v>
+        <v>0.5836575875486382</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.0282258064516129</v>
+        <v>0.02723735408560311</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.125</v>
+        <v>0.1284046692607004</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.09274193548387097</v>
+        <v>0.0933852140077821</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -560,7 +560,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.03267973856209151</v>
+        <v>0.03184713375796178</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.05228758169934641</v>
+        <v>0.05095541401273886</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7320261437908496</v>
+        <v>0.732484076433121</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1830065359477124</v>
+        <v>0.1847133757961783</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.0625</v>
+        <v>0.06122448979591837</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.7083333333333334</v>
+        <v>0.6938775510204082</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.2291666666666667</v>
+        <v>0.2448979591836735</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.04743083003952569</v>
+        <v>0.04633204633204633</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.007905138339920948</v>
+        <v>0.007722007722007722</v>
       </c>
       <c r="E6">
-        <v>0.003952569169960474</v>
+        <v>0.003861003861003861</v>
       </c>
       <c r="F6">
-        <v>0.04347826086956522</v>
+        <v>0.04247104247104247</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1936758893280632</v>
+        <v>0.1930501930501931</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.0158102766798419</v>
+        <v>0.01544401544401544</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.150197628458498</v>
+        <v>0.1505791505791506</v>
       </c>
       <c r="R6">
-        <v>0.1067193675889328</v>
+        <v>0.1081081081081081</v>
       </c>
       <c r="S6">
-        <v>0.4308300395256917</v>
+        <v>0.4324324324324325</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1067961165048544</v>
+        <v>0.1055045871559633</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.01941747572815534</v>
+        <v>0.01834862385321101</v>
       </c>
       <c r="E7">
-        <v>0.009708737864077669</v>
+        <v>0.009174311926605505</v>
       </c>
       <c r="F7">
-        <v>0.07281553398058252</v>
+        <v>0.06880733944954129</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.0970873786407767</v>
+        <v>0.09174311926605505</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.01941747572815534</v>
+        <v>0.02293577981651376</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1650485436893204</v>
+        <v>0.1559633027522936</v>
       </c>
       <c r="R7">
-        <v>0.09223300970873786</v>
+        <v>0.0871559633027523</v>
       </c>
       <c r="S7">
-        <v>0.4174757281553398</v>
+        <v>0.4403669724770642</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.09147609147609148</v>
+        <v>0.096</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01871101871101871</v>
+        <v>0.02</v>
       </c>
       <c r="E8">
-        <v>0.002079002079002079</v>
+        <v>0.002</v>
       </c>
       <c r="F8">
-        <v>0.07276507276507277</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.103950103950104</v>
+        <v>0.102</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.02494802494802495</v>
+        <v>0.024</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1683991683991684</v>
+        <v>0.166</v>
       </c>
       <c r="R8">
-        <v>0.1205821205821206</v>
+        <v>0.12</v>
       </c>
       <c r="S8">
-        <v>0.3970893970893971</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.08383233532934131</v>
+        <v>0.08</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.02395209580838323</v>
+        <v>0.02285714285714286</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.0718562874251497</v>
+        <v>0.06857142857142857</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1077844311377246</v>
+        <v>0.1085714285714286</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.01197604790419162</v>
+        <v>0.01142857142857143</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1856287425149701</v>
+        <v>0.1885714285714286</v>
       </c>
       <c r="R9">
-        <v>0.1017964071856287</v>
+        <v>0.1142857142857143</v>
       </c>
       <c r="S9">
-        <v>0.4131736526946108</v>
+        <v>0.4057142857142857</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.09083402146985962</v>
+        <v>0.09010458567980692</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02394715111478117</v>
+        <v>0.02333065164923572</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.09083402146985962</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1007431874483898</v>
+        <v>0.1005631536604988</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.02394715111478117</v>
+        <v>0.02413515687851971</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.1816680429397192</v>
+        <v>0.1810136765888978</v>
       </c>
       <c r="R10">
-        <v>0.1114781172584641</v>
+        <v>0.1134352373290426</v>
       </c>
       <c r="S10">
-        <v>0.3765483071841453</v>
+        <v>0.3765084473049075</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1146496815286624</v>
+        <v>0.1219512195121951</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.09554140127388536</v>
+        <v>0.09451219512195122</v>
       </c>
       <c r="K11">
-        <v>0.1815286624203822</v>
+        <v>0.1829268292682927</v>
       </c>
       <c r="L11">
-        <v>0.589171974522293</v>
+        <v>0.5823170731707317</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01910828025477707</v>
+        <v>0.01829268292682927</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7540106951871658</v>
+        <v>0.7564766839378239</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1978609625668449</v>
+        <v>0.1968911917098446</v>
       </c>
       <c r="K12">
-        <v>0.0053475935828877</v>
+        <v>0.005181347150259068</v>
       </c>
       <c r="L12">
-        <v>0.0106951871657754</v>
+        <v>0.01036269430051814</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.03208556149732621</v>
+        <v>0.0310880829015544</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.6938775510204082</v>
+        <v>0.7115384615384616</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2653061224489796</v>
+        <v>0.25</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.04081632653061224</v>
+        <v>0.03846153846153846</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.01171875</v>
+        <v>0.01149425287356322</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.15234375</v>
+        <v>0.1494252873563219</v>
       </c>
       <c r="I15">
-        <v>0.0625</v>
+        <v>0.06130268199233716</v>
       </c>
       <c r="J15">
-        <v>0.3359375</v>
+        <v>0.3371647509578544</v>
       </c>
       <c r="K15">
-        <v>0.05859375</v>
+        <v>0.05747126436781609</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.01953125</v>
+        <v>0.01915708812260536</v>
       </c>
       <c r="N15">
-        <v>0.0078125</v>
+        <v>0.007662835249042145</v>
       </c>
       <c r="O15">
-        <v>0.08984375</v>
+        <v>0.08812260536398467</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.26171875</v>
+        <v>0.2681992337164751</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.02285714285714286</v>
+        <v>0.0223463687150838</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1542857142857143</v>
+        <v>0.1508379888268156</v>
       </c>
       <c r="I16">
-        <v>0.09142857142857143</v>
+        <v>0.09497206703910614</v>
       </c>
       <c r="J16">
-        <v>0.36</v>
+        <v>0.3687150837988827</v>
       </c>
       <c r="K16">
-        <v>0.1142857142857143</v>
+        <v>0.111731843575419</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.02285714285714286</v>
+        <v>0.0223463687150838</v>
       </c>
       <c r="N16">
-        <v>0.01142857142857143</v>
+        <v>0.0111731843575419</v>
       </c>
       <c r="O16">
-        <v>0.05142857142857143</v>
+        <v>0.05027932960893855</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1714285714285714</v>
+        <v>0.1675977653631285</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.02743142144638404</v>
+        <v>0.02669902912621359</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.2044887780548628</v>
+        <v>0.2063106796116505</v>
       </c>
       <c r="I17">
-        <v>0.07231920199501247</v>
+        <v>0.07524271844660194</v>
       </c>
       <c r="J17">
-        <v>0.4014962593516209</v>
+        <v>0.3980582524271845</v>
       </c>
       <c r="K17">
-        <v>0.09725685785536159</v>
+        <v>0.09466019417475728</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.009975062344139651</v>
+        <v>0.009708737864077669</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.04488778054862843</v>
+        <v>0.04611650485436893</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.14214463840399</v>
+        <v>0.1432038834951456</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.02723735408560311</v>
+        <v>0.02973977695167286</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.178988326848249</v>
+        <v>0.1784386617100372</v>
       </c>
       <c r="I18">
-        <v>0.09727626459143969</v>
+        <v>0.09293680297397769</v>
       </c>
       <c r="J18">
-        <v>0.4046692607003891</v>
+        <v>0.3940520446096654</v>
       </c>
       <c r="K18">
-        <v>0.08171206225680934</v>
+        <v>0.08921933085501858</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.02723735408560311</v>
+        <v>0.02602230483271376</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.05836575875486381</v>
+        <v>0.05576208178438662</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1245136186770428</v>
+        <v>0.1338289962825279</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01386748844375963</v>
+        <v>0.01327433628318584</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.224191063174114</v>
+        <v>0.226401179941003</v>
       </c>
       <c r="I19">
-        <v>0.06471494607087827</v>
+        <v>0.06563421828908554</v>
       </c>
       <c r="J19">
-        <v>0.3528505392912172</v>
+        <v>0.3488200589970502</v>
       </c>
       <c r="K19">
-        <v>0.1217257318952234</v>
+        <v>0.1216814159292035</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02311248073959938</v>
+        <v>0.02433628318584071</v>
       </c>
       <c r="N19">
-        <v>0.0007704160246533128</v>
+        <v>0.0007374631268436578</v>
       </c>
       <c r="O19">
-        <v>0.08320493066255778</v>
+        <v>0.08112094395280237</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1155624036979969</v>
+        <v>0.1179941002949852</v>
       </c>
     </row>
   </sheetData>
